--- a/packages-test/packages_testcase.xlsx
+++ b/packages-test/packages_testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>mcelog</t>
   </si>
@@ -1860,127 +1860,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Start service binfmt-support:
-# systemctl start binfmt-support
-# systemctl status binfmt-support
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Stop service binfmt-support:
-# systemctl stop binfmt-support
-# systemctl status binfmt-support
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Restart service binfmt-support:
-# systemctl restart binfmt-support
-# systemctl status binfmt-support
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Enable all known binary formats:
-# update-binfmts --enable
-# update-binfmts --display
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Disable all known binary formats:
-# update-binfmts --disable
-# update-binfmts --display
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Re-enable all known binary formats:
-# update-binfmts --enable
-# update-binfmts --display</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>1a.</t>
     </r>
     <r>
@@ -2182,6 +2061,9 @@
     </r>
   </si>
   <si>
+    <t>dnsmasq</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2197,7 +2079,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> If it prints "Active: active (running)" that is fine. Get output like:
+      <t xml:space="preserve"> If it prints "Active: active" that is fine. Get output like:
 </t>
     </r>
     <r>
@@ -2259,7 +2141,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> If it prints "Active: inactive (dead)" that is fine. Get output like:
+      <t xml:space="preserve"> If it prints "Active: inactive" that is fine. Get output like:
 </t>
     </r>
     <r>
@@ -2320,7 +2202,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> If it prints "Active: active (running)" that is fine. Get output like:</t>
+      <t xml:space="preserve"> If it prints "Active: active" that is fine. Get output like:</t>
     </r>
     <r>
       <rPr>
@@ -2461,15 +2343,431 @@
     </r>
   </si>
   <si>
-    <t>dnsmasq</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Start service dnsmasq:
+# systemctl start dnsmasq
+# systemctl status dnsmasq
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Stop service dnsmasq:
+# systemctl stop dnsmasq
+# systemctl status dnsmasq
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Restart service dnsmasq:
+# systemctl restart dnsmasq
+# systemctl status dnsmasq
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read and syntax check configuration file(s):
+# dnsmasq --test</t>
+    </r>
   </si>
   <si>
-    <t>1. Read and syntax check configuration file(s):
-# dnsmasq --test</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Start service binfmt-support:
+# systemctl start binfmt-support
+# systemctl status binfmt-support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Stop service binfmt-support:
+# systemctl stop binfmt-support
+# systemctl status binfmt-support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Restart service binfmt-support:
+# systemctl restart binfmt-support
+# systemctl status binfmt-support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Enable all known binary formats:
+# update-binfmts --enable
+# update-binfmts --display
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Disable all known binary formats:
+# update-binfmts --disable
+# update-binfmts --display
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Re-enable all known binary formats:
+# update-binfmts --enable
+# update-binfmts --display</t>
+    </r>
   </si>
   <si>
-    <t>1. If it prints "OK" that is fine. Get output like:
-dnsmasq: syntax check OK.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If it prints "Active: active" that is fine. Get output like:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">● dnsmasq.service - dnsmasq - A lightweight DHCP and caching DNS server
+   Loaded: loaded (/lib/systemd/system/dnsmasq.service; enabled)
+  Drop-In: /run/systemd/generator/dnsmasq.service.d
+           └─50-dnsmasq-$named.conf, 50-insserv.conf-$named.conf
+   Active: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>active (running)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> since Mon 2018-01-29 09:03:59 +07; 9min ago
+  Process: 515 ExecStartPost=/etc/init.d/dnsmasq systemd-start-resolvconf (code=exited, status=0/SUCCESS)
+  Process: 503 ExecStart=/etc/init.d/dnsmasq systemd-exec (code=exited, status=0/SUCCESS)
+  Process: 465 ExecStartPre=/usr/sbin/dnsmasq --test (code=exited, status=0/SUCCESS)
+ Main PID: 514 (dnsmasq)
+   CGroup: /system.slice/dnsmasq.service
+           └─514 /usr/sbin/dnsmasq -x /var/run/dnsmasq/dnsmasq.pid...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If it prints "Active: inactive" that is fine. Get output like:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>● dnsmasq.service - dnsmasq - A lightweight DHCP and caching DNS server
+   Loaded: loaded (/lib/systemd/system/dnsmasq.service; enabled)
+  Drop-In: /run/systemd/generator/dnsmasq.service.d
+           └─50-dnsmasq-$named.conf, 50-insserv.conf-$named.conf
+   Active:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> inactive (dead)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> since Mon 2018-01-29 09:13:29 +07; 1s ago
+  Process: 1987 ExecStop=/etc/init.d/dnsmasq systemd-stop-resolvconf (code=exited, status=0/SUCCESS)
+  Process: 515 ExecStartPost=/etc/init.d/dnsmasq systemd-start-resolvconf (code=exited, status=0/SUCCESS)
+  Process: 503 ExecStart=/etc/init.d/dnsmasq systemd-exec (code=exited, status=0/SUCCESS)
+  Process: 465 ExecStartPre=/usr/sbin/dnsmasq --test (code=exited, status=0/SUCCESS)
+ Main PID: 514 (code=exited, status=0/SUCCESS)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If it prints "Active: active" that is fine. Get output like:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">● dnsmasq.service - dnsmasq - A lightweight DHCP and caching DNS server
+   Loaded: loaded (/lib/systemd/system/dnsmasq.service; enabled)
+  Drop-In: /run/systemd/generator/dnsmasq.service.d
+           └─50-dnsmasq-$named.conf, 50-insserv.conf-$named.conf
+   Active: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>active (running)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> since Mon 2018-01-29 09:14:07 +07; 1s ago
+  Process: 1987 ExecStop=/etc/init.d/dnsmasq systemd-stop-resolvconf (code=exited, status=0/SUCCESS)
+  Process: 2008 ExecStartPost=/etc/init.d/dnsmasq systemd-start-resolvconf (code=exited, status=0/SUCCESS)
+  Process: 1999 ExecStart=/etc/init.d/dnsmasq systemd-exec (code=exited, status=0/SUCCESS)
+  Process: 1998 ExecStartPre=/usr/sbin/dnsmasq --test (code=exited, status=0/SUCCESS)
+ Main PID: 2007 (dnsmasq)
+   CGroup: /system.slice/dnsmasq.service
+           └─2007 /usr/sbin/dnsmasq -x /var/run/dnsmasq/dnsmasq.pi...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If it prints "OK" that is fine. Get output like:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>dnsmasq: syntax check OK.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2835,7 +3133,7 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2936,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -2946,14 +3244,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
